--- a/biology/Médecine/Diane_Francœur/Diane_Francœur.xlsx
+++ b/biology/Médecine/Diane_Francœur/Diane_Francœur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diane_Franc%C5%93ur</t>
+          <t>Diane_Francœur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diane Francœur est une gynécologue québécoise qui a été la première femme présidente de la Fédération des médecins spécialistes du Québec[1] de 2014 à 2021.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diane Francœur est une gynécologue québécoise qui a été la première femme présidente de la Fédération des médecins spécialistes du Québec de 2014 à 2021.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Diane_Franc%C5%93ur</t>
+          <t>Diane_Francœur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Diane Francœur a obtenu son doctorat en médecine à l’Université Laval en 1987 et sa spécialisation en obstétrique gynécologique en 1992 à l’Université de Montréal[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Diane Francœur a obtenu son doctorat en médecine à l’Université Laval en 1987 et sa spécialisation en obstétrique gynécologique en 1992 à l’Université de Montréal.
 Pendant sa présidence à la FMSQ, plusieurs ententes ont été conclues avec le Ministère de la santé, notamment:
-Élargissement de l'accès aux échographies dans les cliniques privées en 2017, dorénavant entièrement couvertes par la RAMQ[3]
-Faire pression sur le gouvernement québécois pour reconnaître la nécessité des masques et sensibilisé la population au délestage de chirurgies et autres conséquences de la crise sanitaire de 2020-2021[4]</t>
+Élargissement de l'accès aux échographies dans les cliniques privées en 2017, dorénavant entièrement couvertes par la RAMQ
+Faire pression sur le gouvernement québécois pour reconnaître la nécessité des masques et sensibilisé la population au délestage de chirurgies et autres conséquences de la crise sanitaire de 2020-2021</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Diane_Franc%C5%93ur</t>
+          <t>Diane_Francœur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Présidences et conseils d'administration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Présidente de l’Association des obstétriciens et gynécologues du Québec 2006 à 2008
 Présidente de la Société des obstétriciens et gynécologues du Canada 2014 et 2015
